--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="29050" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -260,6 +260,21 @@
     <t>[170]</t>
   </si>
   <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>拖尾子弹1</t>
+  </si>
+  <si>
+    <t>bullet0006</t>
+  </si>
+  <si>
+    <t>[300,320]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
     <t>激光1</t>
   </si>
   <si>
@@ -269,7 +284,7 @@
     <t>[35]</t>
   </si>
   <si>
-    <t>[300,330]</t>
+    <t>[2000,2000]</t>
   </si>
   <si>
     <t>刀伤害</t>
@@ -1224,26 +1239,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.9083333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="22.725" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.4583333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.725" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.7272727272727" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.4545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.8727272727273" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7272727272727" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.2545454545455" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.3727272727273" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.6272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:13">
@@ -1615,73 +1630,115 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" ht="28" customHeight="1" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" ht="25" customHeight="1" spans="1:12">
-      <c r="A11" s="1">
+    <row r="11" ht="26" customHeight="1" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:12">
+      <c r="A12" s="1">
         <v>1001</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="25" customHeight="1"/>
-    <row r="13" ht="20" customHeight="1" spans="1:10">
-      <c r="A13" s="1">
+    <row r="13" ht="25" customHeight="1"/>
+    <row r="14" ht="25" customHeight="1"/>
+    <row r="15" ht="20" customHeight="1" spans="1:10">
+      <c r="A15" s="1">
         <v>2001</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>71</v>
+      <c r="J15" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1757,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1717,7 +1774,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>bullet0006</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[45]</t>
   </si>
   <si>
     <t>[300,320]</t>
@@ -1241,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1644,16 +1650,16 @@
         <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>37</v>
@@ -1665,7 +1671,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>35</v>
@@ -1680,25 +1686,25 @@
         <v>1001</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>37</v>
@@ -1717,13 +1723,13 @@
         <v>2001</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>62</v>
@@ -1732,13 +1738,13 @@
         <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29050" windowHeight="14130"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
     <t>[45]</t>
   </si>
   <si>
-    <t>[300,320]</t>
-  </si>
-  <si>
-    <t>[2]</t>
+    <t>[350,350]</t>
+  </si>
+  <si>
+    <t>[1]</t>
   </si>
   <si>
     <t>激光1</t>
@@ -1247,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1671,10 +1671,10 @@
         <v>35</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:2">

--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -279,6 +279,21 @@
   </si>
   <si>
     <t>[1]</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>子弹4</t>
+  </si>
+  <si>
+    <t>bullet0007</t>
+  </si>
+  <si>
+    <t>[350,380]</t>
+  </si>
+  <si>
+    <t>[400,450]</t>
   </si>
   <si>
     <t>激光1</t>
@@ -1245,10 +1260,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1677,74 +1692,121 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+    <row r="11" ht="26" customHeight="1" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" ht="25" customHeight="1" spans="1:12">
-      <c r="A12" s="1">
+    <row r="12" ht="28" customHeight="1" spans="1:13">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" ht="26" customHeight="1" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:12">
+      <c r="A14" s="1">
         <v>1001</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="25" customHeight="1"/>
-    <row r="14" ht="25" customHeight="1"/>
-    <row r="15" ht="20" customHeight="1" spans="1:10">
-      <c r="A15" s="1">
+    <row r="15" ht="25" customHeight="1"/>
+    <row r="16" ht="25" customHeight="1"/>
+    <row r="17" ht="20" customHeight="1" spans="1:10">
+      <c r="A17" s="1">
         <v>2001</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>78</v>
+      <c r="J17" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>[400,450]</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>子弹5</t>
+  </si>
+  <si>
+    <t>bullet0008</t>
   </si>
   <si>
     <t>激光1</t>
@@ -1263,7 +1272,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1733,11 +1742,46 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="28" customHeight="1" spans="1:13">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="M12" s="2"/>
+    <row r="12" ht="26" customHeight="1" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:2">
       <c r="A13" s="3"/>
@@ -1748,25 +1792,25 @@
         <v>1001</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>37</v>
@@ -1785,13 +1829,13 @@
         <v>2001</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>62</v>
@@ -1800,13 +1844,13 @@
         <v>35</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
   <si>
     <t>Id</t>
   </si>
@@ -303,6 +303,27 @@
   </si>
   <si>
     <t>bullet0008</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>弓箭</t>
+  </si>
+  <si>
+    <t>bullet0009</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[55]</t>
+  </si>
+  <si>
+    <t>[450,480]</t>
+  </si>
+  <si>
+    <t>[300,350]</t>
   </si>
   <si>
     <t>激光1</t>
@@ -1269,10 +1290,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1783,74 +1804,121 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+    <row r="13" ht="26" customHeight="1" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="1:12">
-      <c r="A14" s="1">
+    <row r="14" ht="26" customHeight="1" spans="1:13">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" ht="26" customHeight="1" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" ht="25" customHeight="1" spans="1:12">
+      <c r="A16" s="1">
         <v>1001</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" ht="25" customHeight="1"/>
-    <row r="16" ht="25" customHeight="1"/>
-    <row r="17" ht="20" customHeight="1" spans="1:10">
-      <c r="A17" s="1">
+    <row r="17" ht="25" customHeight="1"/>
+    <row r="18" ht="25" customHeight="1"/>
+    <row r="19" ht="20" customHeight="1" spans="1:10">
+      <c r="A19" s="1">
         <v>2001</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>86</v>
+      <c r="J19" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -314,9 +314,6 @@
     <t>bullet0009</t>
   </si>
   <si>
-    <t>[12]</t>
-  </si>
-  <si>
     <t>[55]</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>res://prefab/bullet/laser/Laser0001.tscn</t>
+  </si>
+  <si>
+    <t>[7]</t>
   </si>
   <si>
     <t>[35]</t>
@@ -1292,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1818,22 +1818,22 @@
         <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>35</v>
@@ -1860,16 +1860,16 @@
         <v>1001</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>93</v>

--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="19215" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,10 +317,10 @@
     <t>[55]</t>
   </si>
   <si>
-    <t>[450,480]</t>
-  </si>
-  <si>
-    <t>[300,350]</t>
+    <t>[400,400]</t>
+  </si>
+  <si>
+    <t>[50,50]</t>
   </si>
   <si>
     <t>激光1</t>
@@ -1292,24 +1292,24 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.3727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.9090909090909" style="1" customWidth="1"/>
-    <col min="5" max="6" width="22.7272727272727" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.4545454545455" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.8727272727273" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7272727272727" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.2545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.9083333333333" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.725" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.4583333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.725" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.2583333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.3727272727273" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.6272727272727" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:13">
@@ -1937,7 +1937,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1954,7 +1954,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/BulletBase.xlsx
+++ b/DungeonShooting_Godot/excel/BulletBase.xlsx
@@ -320,7 +320,7 @@
     <t>[400,400]</t>
   </si>
   <si>
-    <t>[50,50]</t>
+    <t>[250,300]</t>
   </si>
   <si>
     <t>激光1</t>
@@ -1292,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
